--- a/DymonProject/DymonProject/RegressionTest.xlsx
+++ b/DymonProject/DymonProject/RegressionTest.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="84" windowWidth="22980" windowHeight="10056" activeTab="3"/>
@@ -12,12 +12,12 @@
     <sheet name="SGD Swap" sheetId="3" r:id="rId3"/>
     <sheet name="USD Bond" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
   <si>
     <t>USD/DEP/1D</t>
   </si>
@@ -152,19 +152,50 @@
   </si>
   <si>
     <t>SGD/IRS/F-SI/30Y</t>
+  </si>
+  <si>
+    <t>B 0 04/25/13</t>
+  </si>
+  <si>
+    <t>B 0 06/27/13</t>
+  </si>
+  <si>
+    <t>B 0 09/26/13</t>
+  </si>
+  <si>
+    <t>B 0 03/06/14</t>
+  </si>
+  <si>
+    <t>T 0 1/4 03/31/15</t>
+  </si>
+  <si>
+    <t>T 0 3/8 03/15/16</t>
+  </si>
+  <si>
+    <t>T 0 3/4 03/31/18</t>
+  </si>
+  <si>
+    <t>T 1 1/8 03/31/20</t>
+  </si>
+  <si>
+    <t>T 2 02/15/23</t>
+  </si>
+  <si>
+    <t>T 3 1/8 02/15/43</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="165" formatCode="0.00000000000"/>
-    <numFmt numFmtId="166" formatCode="0.00000000000000"/>
-    <numFmt numFmtId="168" formatCode="0.000000000000"/>
-    <numFmt numFmtId="170" formatCode="0.0000000000000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="0.00000000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000000000"/>
+    <numFmt numFmtId="167" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="168" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +334,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -684,30 +716,35 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="75">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -788,6 +825,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1022,6 +1064,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1056,6 +1099,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1231,14 +1275,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
@@ -1246,7 +1290,7 @@
     <col min="9" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E1" s="9" t="s">
         <v>20</v>
       </c>
@@ -1260,7 +1304,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1285,7 +1329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1310,7 +1354,7 @@
         <v>-4.9960036108132044E-15</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1335,7 +1379,7 @@
         <v>-4.9960036108132044E-15</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1360,7 +1404,7 @@
         <v>-4.9960036108132044E-15</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1385,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1410,7 +1454,7 @@
         <v>-4.8849813083506888E-15</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1435,7 +1479,7 @@
         <v>-1.7197354651443675E-13</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1460,7 +1504,7 @@
         <v>3.4083846855992306E-14</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1485,7 +1529,7 @@
         <v>-3.2085445411667024E-14</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1510,7 +1554,7 @@
         <v>-4.7850612361344247E-14</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1535,7 +1579,7 @@
         <v>-5.4956039718945249E-14</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1560,7 +1604,7 @@
         <v>-4.0967229608668276E-14</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1585,7 +1629,7 @@
         <v>-5.9952043329758453E-15</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1610,7 +1654,7 @@
         <v>6.106226635438361E-15</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1635,7 +1679,7 @@
         <v>6.9400041269318535E-13</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1660,7 +1704,7 @@
         <v>-8.8040685852774914E-14</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -1685,7 +1729,7 @@
         <v>7.0055072853847378E-14</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -1710,7 +1754,7 @@
         <v>-3.9968028886505635E-15</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1735,7 +1779,7 @@
         <v>-2.1971876096316123E-7</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -1767,20 +1811,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E1" s="9" t="s">
         <v>20</v>
       </c>
@@ -1794,7 +1838,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -1819,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -1844,7 +1888,7 @@
         <v>4.9960036108132044E-15</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
@@ -1869,7 +1913,7 @@
         <v>4.9960036108132044E-15</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>23</v>
       </c>
@@ -1894,7 +1938,7 @@
         <v>4.9960036108132044E-15</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
@@ -1919,7 +1963,7 @@
         <v>-6.8659522511893556E-12</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>24</v>
       </c>
@@ -1944,7 +1988,7 @@
         <v>-6.8000050035266213E-12</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
@@ -1969,7 +2013,7 @@
         <v>-8.0609963148958741E-12</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>26</v>
       </c>
@@ -1994,7 +2038,7 @@
         <v>-8.9399598834916105E-12</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>7</v>
       </c>
@@ -2019,7 +2063,7 @@
         <v>5.4956039718945249E-14</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
@@ -2044,7 +2088,7 @@
         <v>-1.6986412276764895E-14</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>9</v>
       </c>
@@ -2069,7 +2113,7 @@
         <v>7.6938455606523348E-14</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
@@ -2094,7 +2138,7 @@
         <v>7.893685705084863E-14</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
@@ -2119,7 +2163,7 @@
         <v>8.5154105988749507E-14</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>12</v>
       </c>
@@ -2144,7 +2188,7 @@
         <v>1.1801670751765414E-13</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>13</v>
       </c>
@@ -2169,7 +2213,7 @@
         <v>1.6797674362578618E-13</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
@@ -2194,7 +2238,7 @@
         <v>-4.7495340993464197E-13</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>15</v>
       </c>
@@ -2219,7 +2263,7 @@
         <v>2.390310172017962E-13</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>16</v>
       </c>
@@ -2244,7 +2288,7 @@
         <v>2.2104540420286867E-13</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>17</v>
       </c>
@@ -2269,7 +2313,7 @@
         <v>2.2903900998016979E-13</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>18</v>
       </c>
@@ -2294,7 +2338,7 @@
         <v>2.1971849700763713E-7</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>19</v>
       </c>
@@ -2326,21 +2370,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="E1" sqref="E1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E1" s="9" t="s">
         <v>20</v>
       </c>
@@ -2354,7 +2398,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>27</v>
       </c>
@@ -2379,7 +2423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>28</v>
       </c>
@@ -2404,7 +2448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>29</v>
       </c>
@@ -2429,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>30</v>
       </c>
@@ -2454,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>31</v>
       </c>
@@ -2479,7 +2523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>32</v>
       </c>
@@ -2504,7 +2548,7 @@
         <v>-3.1086244689504383E-15</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>33</v>
       </c>
@@ -2529,7 +2573,7 @@
         <v>-7.9936057773011271E-15</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>34</v>
       </c>
@@ -2554,7 +2598,7 @@
         <v>-4.0079051188968151E-14</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>35</v>
       </c>
@@ -2579,7 +2623,7 @@
         <v>3.5083047578154947E-14</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>36</v>
       </c>
@@ -2604,7 +2648,7 @@
         <v>-1.5099033134902129E-14</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>37</v>
       </c>
@@ -2629,7 +2673,7 @@
         <v>-3.8968828164342995E-14</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>38</v>
       </c>
@@ -2654,7 +2698,7 @@
         <v>-6.106226635438361E-14</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>39</v>
       </c>
@@ -2679,7 +2723,7 @@
         <v>-3.5194069880617462E-13</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>40</v>
       </c>
@@ -2704,7 +2748,7 @@
         <v>-4.9904524956900786E-13</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>41</v>
       </c>
@@ -2729,7 +2773,7 @@
         <v>-6.5591976294854248E-13</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>42</v>
       </c>
@@ -2754,7 +2798,7 @@
         <v>-1.0850209619661655E-12</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>43</v>
       </c>
@@ -2779,7 +2823,7 @@
         <v>-1.4710455076283324E-12</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>44</v>
       </c>
@@ -2811,13 +2855,287 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="22">
+        <v>5.5E-2</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="21">
+        <v>41389</v>
+      </c>
+      <c r="E2" s="24">
+        <v>99.996222249506005</v>
+      </c>
+      <c r="G2" s="21">
+        <v>41389</v>
+      </c>
+      <c r="H2" s="25">
+        <v>0.99996222249505995</v>
+      </c>
+      <c r="J2" s="24">
+        <f>E2/100-H2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="22">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="21">
+        <v>41452</v>
+      </c>
+      <c r="E3" s="24">
+        <v>99.988902857923904</v>
+      </c>
+      <c r="G3" s="21">
+        <v>41452</v>
+      </c>
+      <c r="H3" s="25">
+        <v>0.999889028579238</v>
+      </c>
+      <c r="J3" s="24">
+        <f>E3/100-H3</f>
+        <v>9.9920072216264089E-16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="21">
+        <v>41543</v>
+      </c>
+      <c r="E4" s="24">
+        <v>99.950944798732095</v>
+      </c>
+      <c r="G4" s="21">
+        <v>41543</v>
+      </c>
+      <c r="H4" s="25">
+        <v>0.99950944798732</v>
+      </c>
+      <c r="J4" s="24">
+        <f>E4/100-H4</f>
+        <v>9.9920072216264089E-16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="22">
+        <v>0.125</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="21">
+        <v>41704</v>
+      </c>
+      <c r="E5" s="24">
+        <v>99.882959178628198</v>
+      </c>
+      <c r="G5" s="21">
+        <v>41704</v>
+      </c>
+      <c r="H5" s="25">
+        <v>0.99882959178628195</v>
+      </c>
+      <c r="J5" s="24">
+        <f>E5/100-H5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="22">
+        <v>100.023438</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="21">
+        <v>42094</v>
+      </c>
+      <c r="E6" s="24">
+        <v>99.527343219054998</v>
+      </c>
+      <c r="G6" s="21">
+        <v>42094</v>
+      </c>
+      <c r="H6" s="24">
+        <v>0.99527382832412903</v>
+      </c>
+      <c r="J6" s="24">
+        <f>E6/100-H6</f>
+        <v>-3.9613357905032842E-7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="22">
+        <v>100.085938</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="21">
+        <v>42444</v>
+      </c>
+      <c r="E7" s="24">
+        <v>98.986620919889006</v>
+      </c>
+      <c r="G7" s="21">
+        <v>42444</v>
+      </c>
+      <c r="H7" s="24">
+        <v>0.98987341761047098</v>
+      </c>
+      <c r="J7" s="24">
+        <f>E7/100-H7</f>
+        <v>-7.208411580972296E-6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="22">
+        <v>99.992187999999999</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="21">
+        <v>43192</v>
+      </c>
+      <c r="E8" s="24">
+        <v>96.302970874372605</v>
+      </c>
+      <c r="G8" s="21">
+        <v>43192</v>
+      </c>
+      <c r="H8" s="24">
+        <v>0.96301649406158596</v>
+      </c>
+      <c r="J8" s="24">
+        <f>E8/100-H8</f>
+        <v>1.3214682140105793E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="22">
+        <v>99.328125</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="21">
+        <v>43921</v>
+      </c>
+      <c r="E9" s="24">
+        <v>91.6930201192894</v>
+      </c>
+      <c r="G9" s="21">
+        <v>43921</v>
+      </c>
+      <c r="H9" s="24">
+        <v>0.91690715761549701</v>
+      </c>
+      <c r="J9" s="24">
+        <f>E9/100-H9</f>
+        <v>2.3043577397019455E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="22">
+        <v>101.515625</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="21">
+        <v>44972</v>
+      </c>
+      <c r="E10" s="24">
+        <v>82.964037718791005</v>
+      </c>
+      <c r="G10" s="21">
+        <v>44972</v>
+      </c>
+      <c r="H10" s="24">
+        <v>0.82964884431827302</v>
+      </c>
+      <c r="J10" s="24">
+        <f>E10/100-H10</f>
+        <v>-8.4671303629546557E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="22">
+        <v>100.984375</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="21">
+        <v>52279</v>
+      </c>
+      <c r="E11" s="24">
+        <v>36.8430114163559</v>
+      </c>
+      <c r="G11" s="21">
+        <v>52279</v>
+      </c>
+      <c r="H11" s="24">
+        <v>0.36843507864559999</v>
+      </c>
+      <c r="J11" s="24">
+        <f>E11/100-H11</f>
+        <v>-4.9644820410144064E-6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DymonProject/DymonProject/RegressionTest.xlsx
+++ b/DymonProject/DymonProject/RegressionTest.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="84" windowWidth="22980" windowHeight="10056" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="84" windowWidth="22980" windowHeight="10056" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="USD Swap WO Future" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="SGD Swap" sheetId="3" r:id="rId3"/>
     <sheet name="USD Bond" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -187,15 +187,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00000000000"/>
-    <numFmt numFmtId="165" formatCode="0.00000000000000"/>
-    <numFmt numFmtId="166" formatCode="0.000000000000"/>
-    <numFmt numFmtId="167" formatCode="0.0000000000000"/>
-    <numFmt numFmtId="168" formatCode="0.0000000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000000"/>
+    <numFmt numFmtId="166" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="167" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -716,35 +715,34 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="75">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -989,6 +987,58 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>975360</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="129540" y="2583180"/>
+          <a:ext cx="6423660" cy="6172200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1064,7 +1114,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1099,7 +1148,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1275,14 +1323,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
@@ -1290,7 +1338,7 @@
     <col min="9" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="E1" s="9" t="s">
         <v>20</v>
       </c>
@@ -1304,7 +1352,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1329,7 +1377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1354,7 +1402,7 @@
         <v>-4.9960036108132044E-15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1379,7 +1427,7 @@
         <v>-4.9960036108132044E-15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1404,7 +1452,7 @@
         <v>-4.9960036108132044E-15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1429,7 +1477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1454,7 +1502,7 @@
         <v>-4.8849813083506888E-15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -1479,7 +1527,7 @@
         <v>-1.7197354651443675E-13</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -1504,7 +1552,7 @@
         <v>3.4083846855992306E-14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -1529,7 +1577,7 @@
         <v>-3.2085445411667024E-14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1554,7 +1602,7 @@
         <v>-4.7850612361344247E-14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -1579,7 +1627,7 @@
         <v>-5.4956039718945249E-14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1604,7 +1652,7 @@
         <v>-4.0967229608668276E-14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1629,7 +1677,7 @@
         <v>-5.9952043329758453E-15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1654,7 +1702,7 @@
         <v>6.106226635438361E-15</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1679,7 +1727,7 @@
         <v>6.9400041269318535E-13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1704,7 +1752,7 @@
         <v>-8.8040685852774914E-14</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
@@ -1729,7 +1777,7 @@
         <v>7.0055072853847378E-14</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
@@ -1754,7 +1802,7 @@
         <v>-3.9968028886505635E-15</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -1779,7 +1827,7 @@
         <v>-2.1971876096316123E-7</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
@@ -1811,20 +1859,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:J1"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="E1" s="9" t="s">
         <v>20</v>
       </c>
@@ -1838,7 +1886,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -1859,11 +1907,11 @@
       <c r="H2" s="10">
         <v>0.99999277782993801</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -1884,11 +1932,11 @@
       <c r="H3" s="10">
         <v>0.999971945081082</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="24">
         <v>4.9960036108132044E-15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
@@ -1909,11 +1957,11 @@
       <c r="H4" s="10">
         <v>0.99981780650258001</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="24">
         <v>4.9960036108132044E-15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" s="11" t="s">
         <v>23</v>
       </c>
@@ -1934,11 +1982,11 @@
       <c r="H5" s="10">
         <v>0.99926468774098098</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="24">
         <v>4.9960036108132044E-15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
@@ -1959,11 +2007,11 @@
       <c r="H6" s="10">
         <v>0.99862035562705698</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="24">
         <v>-6.8659522511893556E-12</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="10" t="s">
         <v>24</v>
       </c>
@@ -1984,11 +2032,11 @@
       <c r="H7" s="10">
         <v>0.99772147742164896</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="24">
         <v>-6.8000050035266213E-12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="10" t="s">
         <v>25</v>
       </c>
@@ -2009,11 +2057,11 @@
       <c r="H8" s="10">
         <v>0.99676262148079098</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="24">
         <v>-8.0609963148958741E-12</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="10" t="s">
         <v>26</v>
       </c>
@@ -2034,11 +2082,11 @@
       <c r="H9" s="10">
         <v>0.99572189900369101</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="24">
         <v>-8.9399598834916105E-12</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" s="10" t="s">
         <v>7</v>
       </c>
@@ -2059,11 +2107,11 @@
       <c r="H10" s="10">
         <v>0.99183072900622504</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="24">
         <v>5.4956039718945249E-14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
@@ -2084,11 +2132,11 @@
       <c r="H11" s="10">
         <v>0.98434411467765304</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="24">
         <v>-1.6986412276764895E-14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12" s="10" t="s">
         <v>9</v>
       </c>
@@ -2109,11 +2157,11 @@
       <c r="H12" s="10">
         <v>0.97203393344251898</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="24">
         <v>7.6938455606523348E-14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13" s="10" t="s">
         <v>10</v>
       </c>
@@ -2134,11 +2182,11 @@
       <c r="H13" s="10">
         <v>0.95388863056857798</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="24">
         <v>7.893685705084863E-14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14" s="10" t="s">
         <v>11</v>
       </c>
@@ -2159,11 +2207,11 @@
       <c r="H14" s="10">
         <v>0.93051399665911105</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="24">
         <v>8.5154105988749507E-14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15" s="10" t="s">
         <v>12</v>
       </c>
@@ -2184,11 +2232,11 @@
       <c r="H15" s="10">
         <v>0.90368498982468703</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="24">
         <v>1.1801670751765414E-13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16" s="10" t="s">
         <v>13</v>
       </c>
@@ -2209,11 +2257,11 @@
       <c r="H16" s="10">
         <v>0.87488348366940205</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="24">
         <v>1.6797674362578618E-13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="A17" s="10" t="s">
         <v>14</v>
       </c>
@@ -2234,11 +2282,11 @@
       <c r="H17" s="10">
         <v>0.84493276706978304</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="24">
         <v>-4.7495340993464197E-13</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10">
       <c r="A18" s="10" t="s">
         <v>15</v>
       </c>
@@ -2259,11 +2307,11 @@
       <c r="H18" s="10">
         <v>0.81472531616492405</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="24">
         <v>2.390310172017962E-13</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10">
       <c r="A19" s="10" t="s">
         <v>16</v>
       </c>
@@ -2284,11 +2332,11 @@
       <c r="H19" s="10">
         <v>0.67008943281577105</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="24">
         <v>2.2104540420286867E-13</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10">
       <c r="A20" s="10" t="s">
         <v>17</v>
       </c>
@@ -2309,11 +2357,11 @@
       <c r="H20" s="10">
         <v>0.55488462951865303</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="24">
         <v>2.2903900998016979E-13</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10">
       <c r="A21" s="10" t="s">
         <v>18</v>
       </c>
@@ -2334,11 +2382,11 @@
       <c r="H21" s="10">
         <v>0.46360258679887101</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="24">
         <v>2.1971849700763713E-7</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10">
       <c r="A22" s="10" t="s">
         <v>19</v>
       </c>
@@ -2359,7 +2407,7 @@
       <c r="H22" s="10">
         <v>0.38877255664286597</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="24">
         <v>3.5879193599486214E-7</v>
       </c>
     </row>
@@ -2370,21 +2418,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="E1" s="9" t="s">
         <v>20</v>
       </c>
@@ -2398,453 +2446,453 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="15">
         <v>-4.5199999999999997E-2</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="19">
+      <c r="C2" s="15"/>
+      <c r="D2" s="17">
         <v>41373</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="18">
         <v>100.000619728331</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="17">
+      <c r="F2" s="13"/>
+      <c r="G2" s="16">
         <v>41373</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="13">
         <v>1.0000061972833101</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <v>9.6799999999999997E-2</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="19">
+      <c r="C3" s="15"/>
+      <c r="D3" s="17">
         <v>41379</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="18">
         <v>99.998638985711494</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="17">
+      <c r="F3" s="13"/>
+      <c r="G3" s="16">
         <v>41379</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="13">
         <v>0.99998638985711497</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <v>0.1641</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="19">
+      <c r="C4" s="15"/>
+      <c r="D4" s="17">
         <v>41402</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="18">
         <v>99.987005754690898</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="G4" s="17">
+      <c r="F4" s="13"/>
+      <c r="G4" s="16">
         <v>41402</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="13">
         <v>0.99987005754690905</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:10">
+      <c r="A5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>0.19009999999999999</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="19">
+      <c r="C5" s="15"/>
+      <c r="D5" s="17">
         <v>41435</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="18">
         <v>99.967699776224094</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="17">
+      <c r="F5" s="13"/>
+      <c r="G5" s="16">
         <v>41435</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <v>0.99967699776224095</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>0.21260000000000001</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="19">
+      <c r="C6" s="15"/>
+      <c r="D6" s="17">
         <v>41463</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="18">
         <v>99.947509253824506</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="17">
+      <c r="F6" s="13"/>
+      <c r="G6" s="16">
         <v>41463</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="13">
         <v>0.99947509253824496</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:10">
+      <c r="A7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>0.35970000000000002</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="19">
+      <c r="C7" s="15"/>
+      <c r="D7" s="17">
         <v>41555</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="18">
         <v>99.820501778138095</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="17">
+      <c r="F7" s="13"/>
+      <c r="G7" s="16">
         <v>41555</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="13">
         <v>0.99820501778138404</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="5">
         <v>-3.1086244689504383E-15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:10">
+      <c r="A8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="15">
         <v>0.50070000000000003</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="19">
+      <c r="C8" s="15"/>
+      <c r="D8" s="17">
         <v>41647</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="18">
         <v>99.624656987347507</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="17">
+      <c r="F8" s="13"/>
+      <c r="G8" s="16">
         <v>41647</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <v>0.99624656987348303</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="5">
         <v>-7.9936057773011271E-15</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:10">
+      <c r="A9" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <v>0.4</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="19">
+      <c r="C9" s="15"/>
+      <c r="D9" s="17">
         <v>41737</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="18">
         <v>99.601650279056599</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="17">
+      <c r="F9" s="13"/>
+      <c r="G9" s="16">
         <v>41737</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="13">
         <v>0.99601650279060605</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="5">
         <v>-4.0079051188968151E-14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:10">
+      <c r="A10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="15">
         <v>0.44500000000000001</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="19">
+      <c r="C10" s="15"/>
+      <c r="D10" s="17">
         <v>42102</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="18">
         <v>99.115177088787206</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="17">
+      <c r="F10" s="13"/>
+      <c r="G10" s="16">
         <v>42102</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <v>0.99115177088783701</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="5">
         <v>3.5083047578154947E-14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:10">
+      <c r="A11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="15">
         <v>0.54300000000000004</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="19">
+      <c r="C11" s="15"/>
+      <c r="D11" s="17">
         <v>42468</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="18">
         <v>98.383527758675896</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="17">
+      <c r="F11" s="13"/>
+      <c r="G11" s="16">
         <v>42468</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="13">
         <v>0.98383527758677403</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="5">
         <v>-1.5099033134902129E-14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:10">
+      <c r="A12" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="15">
         <v>0.70299999999999996</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="19">
+      <c r="C12" s="15"/>
+      <c r="D12" s="17">
         <v>42835</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="18">
         <v>97.217833232133302</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="17">
+      <c r="F12" s="13"/>
+      <c r="G12" s="16">
         <v>42835</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <v>0.97217833232137196</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="5">
         <v>-3.8968828164342995E-14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:10">
+      <c r="A13" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="15">
         <v>0.89500000000000002</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="19">
+      <c r="C13" s="15"/>
+      <c r="D13" s="17">
         <v>43199</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="18">
         <v>95.600987162780797</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="17">
+      <c r="F13" s="13"/>
+      <c r="G13" s="16">
         <v>43199</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="13">
         <v>0.95600987162786899</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="5">
         <v>-6.106226635438361E-14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:10">
+      <c r="A14" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="15">
         <v>1.3149999999999999</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="19">
+      <c r="C14" s="15"/>
+      <c r="D14" s="17">
         <v>43929</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="18">
         <v>91.096623167957503</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="17">
+      <c r="F14" s="13"/>
+      <c r="G14" s="16">
         <v>43929</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="13">
         <v>0.91096623167992696</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="5">
         <v>-3.5194069880617462E-13</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+    <row r="15" spans="1:10">
+      <c r="A15" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="15">
         <v>1.8520000000000001</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="19">
+      <c r="C15" s="15"/>
+      <c r="D15" s="17">
         <v>45026</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="18">
         <v>82.667378615587396</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="17">
+      <c r="F15" s="13"/>
+      <c r="G15" s="16">
         <v>45026</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="13">
         <v>0.82667378615637299</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="5">
         <v>-4.9904524956900786E-13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:10">
+      <c r="A16" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="15">
         <v>2.105</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="19">
+      <c r="C16" s="15"/>
+      <c r="D16" s="17">
         <v>45755</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="18">
         <v>76.975031024251706</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="17">
+      <c r="F16" s="13"/>
+      <c r="G16" s="16">
         <v>45755</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="13">
         <v>0.76975031024317297</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="5">
         <v>-6.5591976294854248E-13</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:10">
+      <c r="A17" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="15">
         <v>2.4249999999999998</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="19">
+      <c r="C17" s="15"/>
+      <c r="D17" s="17">
         <v>46853</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="18">
         <v>68.237450252027003</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="17">
+      <c r="F17" s="13"/>
+      <c r="G17" s="16">
         <v>46853</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="13">
         <v>0.68237450252135501</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="5">
         <v>-1.0850209619661655E-12</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:10">
+      <c r="A18" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="15">
         <v>2.7650000000000001</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="19">
+      <c r="C18" s="15"/>
+      <c r="D18" s="17">
         <v>48677</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="18">
         <v>55.364487370240496</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="17">
+      <c r="F18" s="13"/>
+      <c r="G18" s="16">
         <v>48677</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="13">
         <v>0.55364487370387605</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="5">
         <v>-1.4710455076283324E-12</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:10">
+      <c r="A19" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="15">
         <v>3.0049999999999999</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="19">
+      <c r="C19" s="15"/>
+      <c r="D19" s="17">
         <v>52329</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="18">
         <v>37.786296660824803</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="17">
+      <c r="F19" s="13"/>
+      <c r="G19" s="16">
         <v>52329</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="13">
         <v>0.377862967021388</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="5">
         <v>-4.1313996668179698E-10</v>
       </c>
     </row>
@@ -2855,23 +2903,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="E1" s="9" t="s">
         <v>20</v>
       </c>
@@ -2885,257 +2933,258 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="22">
+      <c r="B2" s="20">
         <v>5.5E-2</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="21">
+      <c r="C2" s="21"/>
+      <c r="D2" s="19">
         <v>41389</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="22">
         <v>99.996222249506005</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="22">
         <v>41389</v>
       </c>
-      <c r="H2" s="25">
-        <v>0.99996222249505995</v>
-      </c>
-      <c r="J2" s="24">
-        <f>E2/100-H2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="H2" s="23">
+        <v>0.99996222249503297</v>
+      </c>
+      <c r="J2" s="20">
+        <f t="shared" ref="J2:J11" si="0">E2/100-H2</f>
+        <v>2.708944180085382E-14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="20">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="21">
+      <c r="C3" s="21"/>
+      <c r="D3" s="19">
         <v>41452</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="22">
         <v>99.988902857923904</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="22">
         <v>41452</v>
       </c>
-      <c r="H3" s="25">
-        <v>0.999889028579238</v>
-      </c>
-      <c r="J3" s="24">
-        <f>E3/100-H3</f>
-        <v>9.9920072216264089E-16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="H3" s="23">
+        <v>0.99988902857919104</v>
+      </c>
+      <c r="J3" s="20">
+        <f t="shared" si="0"/>
+        <v>4.7961634663806763E-14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="20">
         <v>0.1</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="21">
+      <c r="C4" s="21"/>
+      <c r="D4" s="19">
         <v>41543</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="22">
         <v>99.950944798732095</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="22">
         <v>41543</v>
       </c>
-      <c r="H4" s="25">
-        <v>0.99950944798732</v>
-      </c>
-      <c r="J4" s="24">
-        <f>E4/100-H4</f>
-        <v>9.9920072216264089E-16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="H4" s="23">
+        <v>0.99950944798739805</v>
+      </c>
+      <c r="J4" s="20">
+        <f t="shared" si="0"/>
+        <v>-7.7049477908985864E-14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="20">
         <v>0.125</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="21">
+      <c r="C5" s="21"/>
+      <c r="D5" s="19">
         <v>41704</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="22">
         <v>99.882959178628198</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="22">
         <v>41704</v>
       </c>
-      <c r="H5" s="25">
-        <v>0.99882959178628195</v>
-      </c>
-      <c r="J5" s="24">
-        <f>E5/100-H5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="H5" s="23">
+        <v>0.99882959178636599</v>
+      </c>
+      <c r="J5" s="20">
+        <f t="shared" si="0"/>
+        <v>-8.404388296412435E-14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="20">
         <v>100.023438</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="21">
+      <c r="C6" s="21"/>
+      <c r="D6" s="19">
         <v>42094</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="22">
         <v>99.527343219054998</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="19">
         <v>42094</v>
       </c>
-      <c r="H6" s="24">
-        <v>0.99527382832412903</v>
-      </c>
-      <c r="J6" s="24">
-        <f>E6/100-H6</f>
-        <v>-3.9613357905032842E-7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="H6" s="22">
+        <v>0.99527343560063097</v>
+      </c>
+      <c r="J6" s="20">
+        <f t="shared" si="0"/>
+        <v>-3.4100809953585554E-9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="22">
+      <c r="B7" s="20">
         <v>100.085938</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="21">
+      <c r="C7" s="21"/>
+      <c r="D7" s="19">
         <v>42444</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="22">
         <v>98.986620919889006</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="19">
         <v>42444</v>
       </c>
-      <c r="H7" s="24">
-        <v>0.98987341761047098</v>
-      </c>
-      <c r="J7" s="24">
-        <f>E7/100-H7</f>
-        <v>-7.208411580972296E-6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+      <c r="H7" s="22">
+        <v>0.98986620918608303</v>
+      </c>
+      <c r="J7" s="20">
+        <f t="shared" si="0"/>
+        <v>1.2806977700563493E-11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="22">
+      <c r="B8" s="20">
         <v>99.992187999999999</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="21">
+      <c r="C8" s="21"/>
+      <c r="D8" s="19">
         <v>43192</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="22">
         <v>96.302970874372605</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="19">
         <v>43192</v>
       </c>
-      <c r="H8" s="24">
-        <v>0.96301649406158596</v>
-      </c>
-      <c r="J8" s="24">
-        <f>E8/100-H8</f>
-        <v>1.3214682140105793E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="H8" s="22">
+        <v>0.96302971887015199</v>
+      </c>
+      <c r="J8" s="20">
+        <f t="shared" si="0"/>
+        <v>-1.0126425920020665E-8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="20">
         <v>99.328125</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="21">
+      <c r="C9" s="21"/>
+      <c r="D9" s="19">
         <v>43921</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="22">
         <v>91.6930201192894</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="19">
         <v>43921</v>
       </c>
-      <c r="H9" s="24">
-        <v>0.91690715761549701</v>
-      </c>
-      <c r="J9" s="24">
-        <f>E9/100-H9</f>
-        <v>2.3043577397019455E-5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+      <c r="H9" s="22">
+        <v>0.91693021608692504</v>
+      </c>
+      <c r="J9" s="20">
+        <f t="shared" si="0"/>
+        <v>-1.4894031008516606E-8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="22">
+      <c r="B10" s="20">
         <v>101.515625</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="21">
+      <c r="C10" s="21"/>
+      <c r="D10" s="19">
         <v>44972</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="22">
         <v>82.964037718791005</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="19">
         <v>44972</v>
       </c>
-      <c r="H10" s="24">
-        <v>0.82964884431827302</v>
-      </c>
-      <c r="J10" s="24">
-        <f>E10/100-H10</f>
-        <v>-8.4671303629546557E-6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+      <c r="H10" s="22">
+        <v>0.82964037603892604</v>
+      </c>
+      <c r="J10" s="20">
+        <f t="shared" si="0"/>
+        <v>1.1489840190392897E-9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="20">
         <v>100.984375</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="21">
+      <c r="C11" s="21"/>
+      <c r="D11" s="19">
         <v>52279</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="22">
         <v>36.8430114163559</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="19">
         <v>52279</v>
       </c>
-      <c r="H11" s="24">
-        <v>0.36843507864559999</v>
-      </c>
-      <c r="J11" s="24">
-        <f>E11/100-H11</f>
-        <v>-4.9644820410144064E-6</v>
+      <c r="H11" s="22">
+        <v>0.36843011087441802</v>
+      </c>
+      <c r="J11" s="20">
+        <f t="shared" si="0"/>
+        <v>3.2891409595947607E-9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>